--- a/src/Database/UserInformation/f.xlsx
+++ b/src/Database/UserInformation/f.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\BankingProjectPhase2UI\src\Database\User_Information\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\BankingProjectPhase2UI\src\Database\UserInformation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{244B1D8A-DD05-453F-8B59-3EB1347FE1C2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89BAB4F3-839D-4BCF-AD2E-0924DB92C5C6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5985" yWindow="4305" windowWidth="21600" windowHeight="11835" activeTab="4" xr2:uid="{1FDF4954-229B-4287-993A-E8DC20E2EDF3}"/>
+    <workbookView xWindow="6000" yWindow="3450" windowWidth="21600" windowHeight="11835" activeTab="1" xr2:uid="{1FDF4954-229B-4287-993A-E8DC20E2EDF3}"/>
   </bookViews>
   <sheets>
     <sheet name="Amount" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
   <si>
     <t>Amount</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>Location/Place/Person</t>
+  </si>
+  <si>
+    <t>Comments</t>
   </si>
 </sst>
 </file>
@@ -419,13 +422,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A12A9B-8F6C-4916-BF6E-560EC38CF411}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -437,6 +442,9 @@
       </c>
       <c r="D1" t="s">
         <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -446,13 +454,15 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8DDA284-6D89-4D9A-AAA6-AE14FAD24D46}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -464,6 +474,9 @@
       </c>
       <c r="D1" t="s">
         <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -473,13 +486,15 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A2DBD7-70F4-41FB-80F6-FD3DA71A2055}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -491,6 +506,9 @@
       </c>
       <c r="D1" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -500,13 +518,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E302CDA9-0C4B-46A5-8034-BB2274D7D4A0}">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -518,6 +538,9 @@
       </c>
       <c r="D1" t="s">
         <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/src/Database/UserInformation/f.xlsx
+++ b/src/Database/UserInformation/f.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\BankingProjectPhase2UI\src\Database\UserInformation\"/>
     </mc:Choice>
@@ -21,7 +21,7 @@
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
   <si>
     <t>Amount</t>
   </si>
@@ -59,12 +59,37 @@
   </si>
   <si>
     <t>Comments</t>
+  </si>
+  <si>
+    <t>300</t>
+  </si>
+  <si>
+    <t>0843</t>
+  </si>
+  <si>
+    <t>12/06/2021</t>
+  </si>
+  <si>
+    <t>Here, Now</t>
+  </si>
+  <si>
+    <t>Maximum Pain</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>1300</t>
+  </si>
+  <si>
+    <t>Not, Here</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -422,7 +447,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A12A9B-8F6C-4916-BF6E-560EC38CF411}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -447,6 +472,23 @@
         <v>6</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -454,7 +496,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8DDA284-6D89-4D9A-AAA6-AE14FAD24D46}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -477,6 +519,23 @@
       </c>
       <c r="E1" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/Database/UserInformation/f.xlsx
+++ b/src/Database/UserInformation/f.xlsx
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>Amount</t>
   </si>
@@ -83,6 +83,30 @@
   </si>
   <si>
     <t>Not, Here</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>1450</t>
+  </si>
+  <si>
+    <t>12/07/2021</t>
+  </si>
+  <si>
+    <t>Over, there</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>1630</t>
+  </si>
+  <si>
+    <t>Up, here</t>
+  </si>
+  <si>
+    <t>For the homies back home</t>
   </si>
 </sst>
 </file>
@@ -447,7 +471,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76A12A9B-8F6C-4916-BF6E-560EC38CF411}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -489,6 +513,23 @@
         <v>11</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -496,7 +537,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8DDA284-6D89-4D9A-AAA6-AE14FAD24D46}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E1" sqref="E1"/>
@@ -536,6 +577,23 @@
       </c>
       <c r="E2" t="s">
         <v>11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>22</v>
       </c>
     </row>
   </sheetData>
